--- a/examples/USA OGD/electronics_stores/counters_summary.xlsx
+++ b/examples/USA OGD/electronics_stores/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -474,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -526,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -578,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -587,6 +642,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -630,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2188</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -639,6 +709,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -691,6 +776,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -743,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -768,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -786,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2856</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -795,6 +910,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -838,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -899,6 +1044,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -942,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -951,6 +1111,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -994,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1003,6 +1178,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1046,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1055,6 +1245,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
